--- a/data_tables/warm.xlsx
+++ b/data_tables/warm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\pyramid\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8580286F-FA43-4BD5-89A8-2EB6C94ABD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E227F47D-DA5C-4B7A-8B4B-4D17E91D85EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="566">
   <si>
     <t>ГР-1 Автопарковки</t>
   </si>
@@ -339,6 +339,1392 @@
   <si>
     <t>∆ 
 Сумма в рублях с НДС</t>
+  </si>
+  <si>
+    <t>201 808,32</t>
+  </si>
+  <si>
+    <t>112 936,96</t>
+  </si>
+  <si>
+    <t>88 871,36</t>
+  </si>
+  <si>
+    <t>322 541,35</t>
+  </si>
+  <si>
+    <t>243 538,04</t>
+  </si>
+  <si>
+    <t>79 003,31</t>
+  </si>
+  <si>
+    <t>901 734,84</t>
+  </si>
+  <si>
+    <t>797 818,37</t>
+  </si>
+  <si>
+    <t>103 916,47</t>
+  </si>
+  <si>
+    <t>1 337 808,75</t>
+  </si>
+  <si>
+    <t>1 174 967,97</t>
+  </si>
+  <si>
+    <t>162 840,78</t>
+  </si>
+  <si>
+    <t>158 887,25</t>
+  </si>
+  <si>
+    <t>120 324,77</t>
+  </si>
+  <si>
+    <t>38 562,48</t>
+  </si>
+  <si>
+    <t>341 974,18</t>
+  </si>
+  <si>
+    <t>260 100,23</t>
+  </si>
+  <si>
+    <t>81 873,95</t>
+  </si>
+  <si>
+    <t>971 785,97</t>
+  </si>
+  <si>
+    <t>884 465,97</t>
+  </si>
+  <si>
+    <t>87 320,00</t>
+  </si>
+  <si>
+    <t>1 439 920,24</t>
+  </si>
+  <si>
+    <t>1 279 472,82</t>
+  </si>
+  <si>
+    <t>160 447,42</t>
+  </si>
+  <si>
+    <t>211 510,33</t>
+  </si>
+  <si>
+    <t>113 947,38</t>
+  </si>
+  <si>
+    <t>97 562,95</t>
+  </si>
+  <si>
+    <t>346 616,59</t>
+  </si>
+  <si>
+    <t>377 042,27</t>
+  </si>
+  <si>
+    <t>-30 425,68</t>
+  </si>
+  <si>
+    <t>956 594,43</t>
+  </si>
+  <si>
+    <t>826 428,77</t>
+  </si>
+  <si>
+    <t>130 165,66</t>
+  </si>
+  <si>
+    <t>1 426 907,30</t>
+  </si>
+  <si>
+    <t>1 272 697,96</t>
+  </si>
+  <si>
+    <t>154 209,34</t>
+  </si>
+  <si>
+    <t>216 118,42</t>
+  </si>
+  <si>
+    <t>155 224,70</t>
+  </si>
+  <si>
+    <t>60 893,72</t>
+  </si>
+  <si>
+    <t>352 079,90</t>
+  </si>
+  <si>
+    <t>369 449,44</t>
+  </si>
+  <si>
+    <t>-17 369,54</t>
+  </si>
+  <si>
+    <t>899 973,08</t>
+  </si>
+  <si>
+    <t>907 368,94</t>
+  </si>
+  <si>
+    <t>-7 395,86</t>
+  </si>
+  <si>
+    <t>1 388 159,08</t>
+  </si>
+  <si>
+    <t>1 286 961,00</t>
+  </si>
+  <si>
+    <t>101 198,08</t>
+  </si>
+  <si>
+    <t>231 108,56</t>
+  </si>
+  <si>
+    <t>185 924,74</t>
+  </si>
+  <si>
+    <t>45 183,82</t>
+  </si>
+  <si>
+    <t>380 551,05</t>
+  </si>
+  <si>
+    <t>429 202,19</t>
+  </si>
+  <si>
+    <t>-48 651,14</t>
+  </si>
+  <si>
+    <t>963 840,73</t>
+  </si>
+  <si>
+    <t>798 074,64</t>
+  </si>
+  <si>
+    <t>165 766,09</t>
+  </si>
+  <si>
+    <t>1 413 307,71</t>
+  </si>
+  <si>
+    <t>1 110 201,78</t>
+  </si>
+  <si>
+    <t>303 105,93</t>
+  </si>
+  <si>
+    <t>743 536,70</t>
+  </si>
+  <si>
+    <t>852 673,92</t>
+  </si>
+  <si>
+    <t>-109 137,22</t>
+  </si>
+  <si>
+    <t>1 619 521,64</t>
+  </si>
+  <si>
+    <t>1 527 663,84</t>
+  </si>
+  <si>
+    <t>91 857,80</t>
+  </si>
+  <si>
+    <t>3 649 441,16</t>
+  </si>
+  <si>
+    <t>2 487 160,67</t>
+  </si>
+  <si>
+    <t>1 162 280,49</t>
+  </si>
+  <si>
+    <t>1 419,59</t>
+  </si>
+  <si>
+    <t>5 197 063,88</t>
+  </si>
+  <si>
+    <t>1 122,12</t>
+  </si>
+  <si>
+    <t>4 022 328,36</t>
+  </si>
+  <si>
+    <t>1 174 735,52</t>
+  </si>
+  <si>
+    <t>905 705,40</t>
+  </si>
+  <si>
+    <t>726 025,23</t>
+  </si>
+  <si>
+    <t>179 680,17</t>
+  </si>
+  <si>
+    <t>1 961 712,64</t>
+  </si>
+  <si>
+    <t>1 638 636,43</t>
+  </si>
+  <si>
+    <t>323 076,21</t>
+  </si>
+  <si>
+    <t>1 277,37</t>
+  </si>
+  <si>
+    <t>4 676 393,74</t>
+  </si>
+  <si>
+    <t>3 106 134,04</t>
+  </si>
+  <si>
+    <t>1 570 259,70</t>
+  </si>
+  <si>
+    <t>1 754,89</t>
+  </si>
+  <si>
+    <t>6 424 592,52</t>
+  </si>
+  <si>
+    <t>1 169,02</t>
+  </si>
+  <si>
+    <t>4 190 436,16</t>
+  </si>
+  <si>
+    <t>2 234 156,36</t>
+  </si>
+  <si>
+    <t>887 335,94</t>
+  </si>
+  <si>
+    <t>675 208,90</t>
+  </si>
+  <si>
+    <t>212 127,04</t>
+  </si>
+  <si>
+    <t>1 820 972,59</t>
+  </si>
+  <si>
+    <t>1 440 641,48</t>
+  </si>
+  <si>
+    <t>380 331,11</t>
+  </si>
+  <si>
+    <t>1 065,13</t>
+  </si>
+  <si>
+    <t>3 899 389,12</t>
+  </si>
+  <si>
+    <t>2 687 570,48</t>
+  </si>
+  <si>
+    <t>1 211 818,64</t>
+  </si>
+  <si>
+    <t>1 475,99</t>
+  </si>
+  <si>
+    <t>5 403 528,65</t>
+  </si>
+  <si>
+    <t>1 105,63</t>
+  </si>
+  <si>
+    <t>3 963 233,89</t>
+  </si>
+  <si>
+    <t>1 440 294,76</t>
+  </si>
+  <si>
+    <t>468 852,31</t>
+  </si>
+  <si>
+    <t>319 215,17</t>
+  </si>
+  <si>
+    <t>149 637,14</t>
+  </si>
+  <si>
+    <t>1 156 338,51</t>
+  </si>
+  <si>
+    <t>947 327,58</t>
+  </si>
+  <si>
+    <t>209 010,93</t>
+  </si>
+  <si>
+    <t>2 816 734,01</t>
+  </si>
+  <si>
+    <t>2 248 644,37</t>
+  </si>
+  <si>
+    <t>568 089,64</t>
+  </si>
+  <si>
+    <t>1 113,76</t>
+  </si>
+  <si>
+    <t>4 077 438,86</t>
+  </si>
+  <si>
+    <t>2 936 612,87</t>
+  </si>
+  <si>
+    <t>1 140 825,99</t>
+  </si>
+  <si>
+    <t>481 894,00</t>
+  </si>
+  <si>
+    <t>299 741,10</t>
+  </si>
+  <si>
+    <t>182 152,90</t>
+  </si>
+  <si>
+    <t>1 290 441,24</t>
+  </si>
+  <si>
+    <t>628 250,39</t>
+  </si>
+  <si>
+    <t>662 190,85</t>
+  </si>
+  <si>
+    <t>2 874 541,12</t>
+  </si>
+  <si>
+    <t>1 638 628,03</t>
+  </si>
+  <si>
+    <t>1 235 913,09</t>
+  </si>
+  <si>
+    <t>1 126,01</t>
+  </si>
+  <si>
+    <t>4 122 284,24</t>
+  </si>
+  <si>
+    <t>2 928 266,19</t>
+  </si>
+  <si>
+    <t>1 194 018,05</t>
+  </si>
+  <si>
+    <t>480 108,24</t>
+  </si>
+  <si>
+    <t>294 273,21</t>
+  </si>
+  <si>
+    <t>185 835,03</t>
+  </si>
+  <si>
+    <t>1 244 537,25</t>
+  </si>
+  <si>
+    <t>711 841,96</t>
+  </si>
+  <si>
+    <t>532 695,29</t>
+  </si>
+  <si>
+    <t>2 717 236,33</t>
+  </si>
+  <si>
+    <t>1 702 558,30</t>
+  </si>
+  <si>
+    <t>1 014 678,03</t>
+  </si>
+  <si>
+    <t>1 095,09</t>
+  </si>
+  <si>
+    <t>4 009 088,74</t>
+  </si>
+  <si>
+    <t>2 949 266,58</t>
+  </si>
+  <si>
+    <t>1 059 822,16</t>
+  </si>
+  <si>
+    <t>401 794,17</t>
+  </si>
+  <si>
+    <t>213 860,69</t>
+  </si>
+  <si>
+    <t>187 933,48</t>
+  </si>
+  <si>
+    <t>1 350 837,32</t>
+  </si>
+  <si>
+    <t>752 424,88</t>
+  </si>
+  <si>
+    <t>598 412,44</t>
+  </si>
+  <si>
+    <t>1 083,73</t>
+  </si>
+  <si>
+    <t>3 967 491,20</t>
+  </si>
+  <si>
+    <t>2 447 999,75</t>
+  </si>
+  <si>
+    <t>1 519 491,45</t>
+  </si>
+  <si>
+    <t>1 803,64</t>
+  </si>
+  <si>
+    <t>6 603 065,85</t>
+  </si>
+  <si>
+    <t>1 209,23</t>
+  </si>
+  <si>
+    <t>4 334 570,92</t>
+  </si>
+  <si>
+    <t>2 268 494,93</t>
+  </si>
+  <si>
+    <t>643 980,36</t>
+  </si>
+  <si>
+    <t>410 753,53</t>
+  </si>
+  <si>
+    <t>233 226,83</t>
+  </si>
+  <si>
+    <t>1 775 700,59</t>
+  </si>
+  <si>
+    <t>997 897,15</t>
+  </si>
+  <si>
+    <t>777 803,44</t>
+  </si>
+  <si>
+    <t>1 565,28</t>
+  </si>
+  <si>
+    <t>5 730 414,30</t>
+  </si>
+  <si>
+    <t>2 980 651,13</t>
+  </si>
+  <si>
+    <t>2 749 763,17</t>
+  </si>
+  <si>
+    <t>2 221,80</t>
+  </si>
+  <si>
+    <t>8 133 910,73</t>
+  </si>
+  <si>
+    <t>1 288,40</t>
+  </si>
+  <si>
+    <t>4 618 365,70</t>
+  </si>
+  <si>
+    <t>3 515 545,03</t>
+  </si>
+  <si>
+    <t>123 650,02</t>
+  </si>
+  <si>
+    <t>68 372,09</t>
+  </si>
+  <si>
+    <t>55 277,93</t>
+  </si>
+  <si>
+    <t>783 292,07</t>
+  </si>
+  <si>
+    <t>220 525,25</t>
+  </si>
+  <si>
+    <t>562 766,82</t>
+  </si>
+  <si>
+    <t>2 182 121,01</t>
+  </si>
+  <si>
+    <t>792 788,21</t>
+  </si>
+  <si>
+    <t>1 389 332,80</t>
+  </si>
+  <si>
+    <t>3 005 607,71</t>
+  </si>
+  <si>
+    <t>1 762 785,32</t>
+  </si>
+  <si>
+    <t>1 242 822,39</t>
+  </si>
+  <si>
+    <t>175 806,38</t>
+  </si>
+  <si>
+    <t>80 022,20</t>
+  </si>
+  <si>
+    <t>95 784,18</t>
+  </si>
+  <si>
+    <t>434 551,04</t>
+  </si>
+  <si>
+    <t>232 136,35</t>
+  </si>
+  <si>
+    <t>202 414,69</t>
+  </si>
+  <si>
+    <t>1 458 740,25</t>
+  </si>
+  <si>
+    <t>953 983,57</t>
+  </si>
+  <si>
+    <t>504 756,68</t>
+  </si>
+  <si>
+    <t>2 250 302,54</t>
+  </si>
+  <si>
+    <t>1 644 720,66</t>
+  </si>
+  <si>
+    <t>605 581,88</t>
+  </si>
+  <si>
+    <t>687 967,17</t>
+  </si>
+  <si>
+    <t>563 338,66</t>
+  </si>
+  <si>
+    <t>124 628,51</t>
+  </si>
+  <si>
+    <t>2 679 874,90</t>
+  </si>
+  <si>
+    <t>1 319 979,94</t>
+  </si>
+  <si>
+    <t>1 359 894,96</t>
+  </si>
+  <si>
+    <t>1 740,76</t>
+  </si>
+  <si>
+    <t>6 372 863,34</t>
+  </si>
+  <si>
+    <t>1 213,01</t>
+  </si>
+  <si>
+    <t>4 440 773,94</t>
+  </si>
+  <si>
+    <t>1 932 089,40</t>
+  </si>
+  <si>
+    <t>2 464,44</t>
+  </si>
+  <si>
+    <t>9 022 218,34</t>
+  </si>
+  <si>
+    <t>1 730,90</t>
+  </si>
+  <si>
+    <t>6 204 546,33</t>
+  </si>
+  <si>
+    <t>2 817 672,01</t>
+  </si>
+  <si>
+    <t>82 018,20</t>
+  </si>
+  <si>
+    <t>43 763,12</t>
+  </si>
+  <si>
+    <t>38 255,08</t>
+  </si>
+  <si>
+    <t>552 680,13</t>
+  </si>
+  <si>
+    <t>189 059,30</t>
+  </si>
+  <si>
+    <t>363 620,83</t>
+  </si>
+  <si>
+    <t>1 665 488,83</t>
+  </si>
+  <si>
+    <t>1 446 767,46</t>
+  </si>
+  <si>
+    <t>218 721,37</t>
+  </si>
+  <si>
+    <t>2 656 886,32</t>
+  </si>
+  <si>
+    <t>2 196 791,93</t>
+  </si>
+  <si>
+    <t>460 094,39</t>
+  </si>
+  <si>
+    <t>186 361,90</t>
+  </si>
+  <si>
+    <t>119 698,75</t>
+  </si>
+  <si>
+    <t>66 663,15</t>
+  </si>
+  <si>
+    <t>1 115 011,51</t>
+  </si>
+  <si>
+    <t>275 450,63</t>
+  </si>
+  <si>
+    <t>839 560,88</t>
+  </si>
+  <si>
+    <t>3 481 551,93</t>
+  </si>
+  <si>
+    <t>1 426 566,23</t>
+  </si>
+  <si>
+    <t>2 054 985,70</t>
+  </si>
+  <si>
+    <t>1 344,27</t>
+  </si>
+  <si>
+    <t>4 921 319,42</t>
+  </si>
+  <si>
+    <t>1 711 405,31</t>
+  </si>
+  <si>
+    <t>3 209 914,11</t>
+  </si>
+  <si>
+    <t>26 037,15</t>
+  </si>
+  <si>
+    <t>14 206,44</t>
+  </si>
+  <si>
+    <t>11 830,71</t>
+  </si>
+  <si>
+    <t>45 889,84</t>
+  </si>
+  <si>
+    <t>23 821,64</t>
+  </si>
+  <si>
+    <t>22 068,20</t>
+  </si>
+  <si>
+    <t>113 660,12</t>
+  </si>
+  <si>
+    <t>96 977,33</t>
+  </si>
+  <si>
+    <t>16 682,79</t>
+  </si>
+  <si>
+    <t>162 563,45</t>
+  </si>
+  <si>
+    <t>124 968,79</t>
+  </si>
+  <si>
+    <t>37 594,66</t>
+  </si>
+  <si>
+    <t>122 921,64</t>
+  </si>
+  <si>
+    <t>57 255,36</t>
+  </si>
+  <si>
+    <t>65 666,28</t>
+  </si>
+  <si>
+    <t>284 038,72</t>
+  </si>
+  <si>
+    <t>106 856,58</t>
+  </si>
+  <si>
+    <t>177 182,14</t>
+  </si>
+  <si>
+    <t>514 272,04</t>
+  </si>
+  <si>
+    <t>256 530,35</t>
+  </si>
+  <si>
+    <t>257 741,69</t>
+  </si>
+  <si>
+    <t>724 270,09</t>
+  </si>
+  <si>
+    <t>557 367,35</t>
+  </si>
+  <si>
+    <t>166 902,74</t>
+  </si>
+  <si>
+    <t>193 554,39</t>
+  </si>
+  <si>
+    <t>85 465,11</t>
+  </si>
+  <si>
+    <t>108 089,28</t>
+  </si>
+  <si>
+    <t>269 166,30</t>
+  </si>
+  <si>
+    <t>197 161,00</t>
+  </si>
+  <si>
+    <t>72 005,30</t>
+  </si>
+  <si>
+    <t>460 911,04</t>
+  </si>
+  <si>
+    <t>382 083,41</t>
+  </si>
+  <si>
+    <t>78 827,63</t>
+  </si>
+  <si>
+    <t>664 058,38</t>
+  </si>
+  <si>
+    <t>613 536,71</t>
+  </si>
+  <si>
+    <t>50 521,67</t>
+  </si>
+  <si>
+    <t>63 961,29</t>
+  </si>
+  <si>
+    <t>146 952,37</t>
+  </si>
+  <si>
+    <t>276 028,69</t>
+  </si>
+  <si>
+    <t>337 373,11</t>
+  </si>
+  <si>
+    <t>54 337,44</t>
+  </si>
+  <si>
+    <t>124 841,39</t>
+  </si>
+  <si>
+    <t>234 496,42</t>
+  </si>
+  <si>
+    <t>286 610,73</t>
+  </si>
+  <si>
+    <t>54 462,90</t>
+  </si>
+  <si>
+    <t>125 129,63</t>
+  </si>
+  <si>
+    <t>235 037,84</t>
+  </si>
+  <si>
+    <t>287 272,48</t>
+  </si>
+  <si>
+    <t>124 726,80</t>
+  </si>
+  <si>
+    <t>286 562,37</t>
+  </si>
+  <si>
+    <t>538 265,80</t>
+  </si>
+  <si>
+    <t>657 889,59</t>
+  </si>
+  <si>
+    <t>150 137,95</t>
+  </si>
+  <si>
+    <t>344 945,02</t>
+  </si>
+  <si>
+    <t>647 929,12</t>
+  </si>
+  <si>
+    <t>791 924,41</t>
+  </si>
+  <si>
+    <t>75 325,60</t>
+  </si>
+  <si>
+    <t>173 062,10</t>
+  </si>
+  <si>
+    <t>325 072,02</t>
+  </si>
+  <si>
+    <t>397 315,79</t>
+  </si>
+  <si>
+    <t>133 515,77</t>
+  </si>
+  <si>
+    <t>306 755,22</t>
+  </si>
+  <si>
+    <t>576 195,13</t>
+  </si>
+  <si>
+    <t>704 248,31</t>
+  </si>
+  <si>
+    <t>132 429,98</t>
+  </si>
+  <si>
+    <t>304 260,59</t>
+  </si>
+  <si>
+    <t>571 509,34</t>
+  </si>
+  <si>
+    <t>698 521,15</t>
+  </si>
+  <si>
+    <t>132 382,08</t>
+  </si>
+  <si>
+    <t>304 150,53</t>
+  </si>
+  <si>
+    <t>571 302,61</t>
+  </si>
+  <si>
+    <t>698 268,48</t>
+  </si>
+  <si>
+    <t>132 598,78</t>
+  </si>
+  <si>
+    <t>304 648,41</t>
+  </si>
+  <si>
+    <t>572 237,80</t>
+  </si>
+  <si>
+    <t>699 411,51</t>
+  </si>
+  <si>
+    <t>131 649,85</t>
+  </si>
+  <si>
+    <t>302 468,23</t>
+  </si>
+  <si>
+    <t>568 142,65</t>
+  </si>
+  <si>
+    <t>694 406,26</t>
+  </si>
+  <si>
+    <t>1 185 528,43</t>
+  </si>
+  <si>
+    <t>2 723 775,86</t>
+  </si>
+  <si>
+    <t>1 397,51</t>
+  </si>
+  <si>
+    <t>5 116 217,42</t>
+  </si>
+  <si>
+    <t>1 708,09</t>
+  </si>
+  <si>
+    <t>6 253 241,81</t>
+  </si>
+  <si>
+    <t>1 351 290,84</t>
+  </si>
+  <si>
+    <t>1 243 187,58</t>
+  </si>
+  <si>
+    <t>108 103,27</t>
+  </si>
+  <si>
+    <t>1 316 748,47</t>
+  </si>
+  <si>
+    <t>1 211 408,59</t>
+  </si>
+  <si>
+    <t>105 339,88</t>
+  </si>
+  <si>
+    <t>1 412 926,77</t>
+  </si>
+  <si>
+    <t>1 299 892,63</t>
+  </si>
+  <si>
+    <t>113 034,14</t>
+  </si>
+  <si>
+    <t>1 322 739,02</t>
+  </si>
+  <si>
+    <t>1 216 919,90</t>
+  </si>
+  <si>
+    <t>105 819,12</t>
+  </si>
+  <si>
+    <t>1 414 018,95</t>
+  </si>
+  <si>
+    <t>1 300 897,44</t>
+  </si>
+  <si>
+    <t>113 121,52</t>
+  </si>
+  <si>
+    <t>1 399,74</t>
+  </si>
+  <si>
+    <t>5 124 408,01</t>
+  </si>
+  <si>
+    <t>1 287,76</t>
+  </si>
+  <si>
+    <t>4 714 455,37</t>
+  </si>
+  <si>
+    <t>409 952,64</t>
+  </si>
+  <si>
+    <t>1 784,43</t>
+  </si>
+  <si>
+    <t>6 532 737,84</t>
+  </si>
+  <si>
+    <t>1 641,68</t>
+  </si>
+  <si>
+    <t>6 010 118,81</t>
+  </si>
+  <si>
+    <t>522 619,03</t>
+  </si>
+  <si>
+    <t>1 458,64</t>
+  </si>
+  <si>
+    <t>5 340 030,02</t>
+  </si>
+  <si>
+    <t>1 283,77</t>
+  </si>
+  <si>
+    <t>4 699 830,62</t>
+  </si>
+  <si>
+    <t>640 199,40</t>
+  </si>
+  <si>
+    <t>2 333,11</t>
+  </si>
+  <si>
+    <t>8 541 424,83</t>
+  </si>
+  <si>
+    <t>1 119,12</t>
+  </si>
+  <si>
+    <t>4 097 053,56</t>
+  </si>
+  <si>
+    <t>1 213,99</t>
+  </si>
+  <si>
+    <t>4 444 371,27</t>
+  </si>
+  <si>
+    <t>1 148,26</t>
+  </si>
+  <si>
+    <t>4 203 719,29</t>
+  </si>
+  <si>
+    <t>3 546 158,88</t>
+  </si>
+  <si>
+    <t>657 560,40</t>
+  </si>
+  <si>
+    <t>1 126,57</t>
+  </si>
+  <si>
+    <t>4 124 336,25</t>
+  </si>
+  <si>
+    <t>3 462 879,37</t>
+  </si>
+  <si>
+    <t>661 456,88</t>
+  </si>
+  <si>
+    <t>1 906,76</t>
+  </si>
+  <si>
+    <t>6 980 580,63</t>
+  </si>
+  <si>
+    <t>1 298,50</t>
+  </si>
+  <si>
+    <t>4 753 746,31</t>
+  </si>
+  <si>
+    <t>2 226 834,32</t>
+  </si>
+  <si>
+    <t>2 318,27</t>
+  </si>
+  <si>
+    <t>8 487 099,84</t>
+  </si>
+  <si>
+    <t>1 587,67</t>
+  </si>
+  <si>
+    <t>5 812 404,42</t>
+  </si>
+  <si>
+    <t>2 674 695,42</t>
+  </si>
+  <si>
+    <t>3 382 406,10</t>
+  </si>
+  <si>
+    <t>2 705 070,16</t>
+  </si>
+  <si>
+    <t>677 335,93</t>
+  </si>
+  <si>
+    <t>2 336 362,44</t>
+  </si>
+  <si>
+    <t>2 040 279,37</t>
+  </si>
+  <si>
+    <t>296 083,07</t>
+  </si>
+  <si>
+    <t>2 437,53</t>
+  </si>
+  <si>
+    <t>8 923 692,51</t>
+  </si>
+  <si>
+    <t>1 759,96</t>
+  </si>
+  <si>
+    <t>6 443 150,48</t>
+  </si>
+  <si>
+    <t>2 480 542,02</t>
+  </si>
+  <si>
+    <t>2 671 954,10</t>
+  </si>
+  <si>
+    <t>2 660 677,36</t>
+  </si>
+  <si>
+    <t>11 276,73</t>
+  </si>
+  <si>
+    <t>1 338,18</t>
+  </si>
+  <si>
+    <t>4 899 021,38</t>
+  </si>
+  <si>
+    <t>2 899 125,21</t>
+  </si>
+  <si>
+    <t>1 999 896,17</t>
+  </si>
+  <si>
+    <t>149 782,08</t>
+  </si>
+  <si>
+    <t>131 044,80</t>
+  </si>
+  <si>
+    <t>18 737,28</t>
+  </si>
+  <si>
+    <t>766 144,96</t>
+  </si>
+  <si>
+    <t>528 721,70</t>
+  </si>
+  <si>
+    <t>237 423,26</t>
+  </si>
+  <si>
+    <t>686 646,00</t>
+  </si>
+  <si>
+    <t>795 594,70</t>
+  </si>
+  <si>
+    <t>-108 948,71</t>
+  </si>
+  <si>
+    <t>344 825,61</t>
+  </si>
+  <si>
+    <t>292 941,90</t>
+  </si>
+  <si>
+    <t>293 618,27</t>
+  </si>
+  <si>
+    <t>672 422,25</t>
+  </si>
+  <si>
+    <t>809 417,87</t>
+  </si>
+  <si>
+    <t>406 092,42</t>
+  </si>
+  <si>
+    <t>719 805,02</t>
+  </si>
+  <si>
+    <t>713 951,35</t>
+  </si>
+  <si>
+    <t>713 693,10</t>
+  </si>
+  <si>
+    <t>714 861,38</t>
+  </si>
+  <si>
+    <t>709 745,56</t>
+  </si>
+  <si>
+    <t>1 745,82</t>
+  </si>
+  <si>
+    <t>6 391 374,75</t>
+  </si>
+  <si>
+    <t>1 551,86</t>
+  </si>
+  <si>
+    <t>5 681 314,96</t>
+  </si>
+  <si>
+    <t>710 059,79</t>
+  </si>
+  <si>
+    <t>ЦТП</t>
+  </si>
+  <si>
+    <t>6 258 029,07</t>
+  </si>
+  <si>
+    <t>1 650,92</t>
+  </si>
+  <si>
+    <t>5 917 863,72</t>
+  </si>
+  <si>
+    <t>340 165,35</t>
+  </si>
+  <si>
+    <t>1 463,90</t>
+  </si>
+  <si>
+    <t>5 247 455,48</t>
+  </si>
+  <si>
+    <t>1 364,12</t>
+  </si>
+  <si>
+    <t>4 889 801,60</t>
+  </si>
+  <si>
+    <t>357 653,88</t>
+  </si>
+  <si>
+    <t>1 611,78</t>
+  </si>
+  <si>
+    <t>5 777 551,14</t>
+  </si>
+  <si>
+    <t>1 469,35</t>
+  </si>
+  <si>
+    <t>5 267 013,76</t>
+  </si>
+  <si>
+    <t>510 537,38</t>
+  </si>
+  <si>
+    <t>1 387,08</t>
+  </si>
+  <si>
+    <t>4 972 115,08</t>
+  </si>
+  <si>
+    <t>1 304,70</t>
+  </si>
+  <si>
+    <t>4 676 807,77</t>
+  </si>
+  <si>
+    <t>295 307,31</t>
+  </si>
+  <si>
+    <t>2 101 208,38</t>
+  </si>
+  <si>
+    <t>2 644 500,84</t>
+  </si>
+  <si>
+    <t>-543 292,46</t>
+  </si>
+  <si>
+    <t>1 597 262,44</t>
+  </si>
+  <si>
+    <t>1 237 731,59</t>
+  </si>
+  <si>
+    <t>359 530,85</t>
+  </si>
+  <si>
+    <t>1 220 383,80</t>
+  </si>
+  <si>
+    <t>1 083 909,32</t>
+  </si>
+  <si>
+    <t>136 474,49</t>
+  </si>
+  <si>
+    <t>767 407,02</t>
+  </si>
+  <si>
+    <t>653 848,77</t>
+  </si>
+  <si>
+    <t>113 558,25</t>
+  </si>
+  <si>
+    <t>1 034 658,11</t>
+  </si>
+  <si>
+    <t>150 870,32</t>
+  </si>
+  <si>
+    <t>458 648,05</t>
+  </si>
+  <si>
+    <t>1 264,64</t>
+  </si>
+  <si>
+    <t>4 629 778,15</t>
+  </si>
+  <si>
+    <t>486 439,27</t>
+  </si>
+  <si>
+    <t>1 502,76</t>
+  </si>
+  <si>
+    <t>5 386 750,79</t>
+  </si>
+  <si>
+    <t>866 491,02</t>
   </si>
 </sst>
 </file>
@@ -374,8 +1760,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -656,18 +2043,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW35"/>
+  <dimension ref="A1:CA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BD34" sqref="BD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="49" max="49" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>100</v>
       </c>
@@ -813,7 +2201,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -842,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -990,8 +2378,83 @@
       <c r="AW3">
         <v>62441.868485550396</v>
       </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1139,8 +2602,98 @@
       <c r="AW4">
         <v>29630.138280000072</v>
       </c>
+      <c r="AX4">
+        <v>55.12</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ4">
+        <v>30.85</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB4">
+        <v>24.28</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD4">
+        <v>88.1</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BF4">
+        <v>66.52</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH4">
+        <v>21.58</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ4">
+        <v>246.31</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL4">
+        <v>217.93</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN4">
+        <v>28.39</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP4">
+        <v>365.43</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR4">
+        <v>327.78</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BT4">
+        <v>37.64</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BV4">
+        <v>369.11</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>428</v>
+      </c>
+      <c r="BX4">
+        <v>339.58</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ4">
+        <v>29.53</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1288,8 +2841,98 @@
       <c r="AW5">
         <v>90937.78093381424</v>
       </c>
+      <c r="AX5">
+        <v>43.4</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ5">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB5">
+        <v>10.53</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD5">
+        <v>93.41</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF5">
+        <v>71.05</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH5">
+        <v>22.36</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ5">
+        <v>265.45</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL5">
+        <v>241.59</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BN5">
+        <v>23.85</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP5">
+        <v>393.32</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR5">
+        <v>356.94</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT5">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV5">
+        <v>359.67</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>431</v>
+      </c>
+      <c r="BX5">
+        <v>330.9</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>432</v>
+      </c>
+      <c r="BZ5">
+        <v>28.77</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>433</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1437,8 +3080,98 @@
       <c r="AW6">
         <v>-157111.61613558116</v>
       </c>
+      <c r="AX6">
+        <v>57.77</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ6">
+        <v>31.13</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB6">
+        <v>26.65</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD6">
+        <v>94.68</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF6">
+        <v>102.99</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH6">
+        <v>-8.31</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ6">
+        <v>261.3</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BL6">
+        <v>225.74</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN6">
+        <v>35.56</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP6">
+        <v>389.76</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR6">
+        <v>355.05</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT6">
+        <v>34.72</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV6">
+        <v>385.94</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>434</v>
+      </c>
+      <c r="BX6">
+        <v>355.07</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>435</v>
+      </c>
+      <c r="BZ6">
+        <v>30.88</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>436</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1586,8 +3319,98 @@
       <c r="AW7">
         <v>92696.497493152274</v>
       </c>
+      <c r="AX7">
+        <v>59.03</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ7">
+        <v>42.4</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB7">
+        <v>16.63</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD7">
+        <v>96.17</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF7">
+        <v>100.92</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH7">
+        <v>-4.74</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ7">
+        <v>245.83</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL7">
+        <v>247.85</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN7">
+        <v>-2.02</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP7">
+        <v>379.18</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR7">
+        <v>359.03</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT7">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV7">
+        <v>361.31</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>437</v>
+      </c>
+      <c r="BX7">
+        <v>332.4</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>438</v>
+      </c>
+      <c r="BZ7">
+        <v>28.9</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>439</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1735,8 +3558,98 @@
       <c r="AW8">
         <v>484328.1241989173</v>
       </c>
+      <c r="AX8">
+        <v>63.13</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ8">
+        <v>50.79</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB8">
+        <v>12.34</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD8">
+        <v>103.95</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF8">
+        <v>117.24</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH8">
+        <v>-13.29</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>157</v>
+      </c>
+      <c r="BJ8">
+        <v>263.27999999999997</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL8">
+        <v>218</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN8">
+        <v>45.28</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>160</v>
+      </c>
+      <c r="BP8">
+        <v>386.05</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR8">
+        <v>309.72000000000003</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT8">
+        <v>76.33</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>163</v>
+      </c>
+      <c r="BV8">
+        <v>386.24</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>440</v>
+      </c>
+      <c r="BX8">
+        <v>355.34</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>441</v>
+      </c>
+      <c r="BZ8">
+        <v>30.9</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>442</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1884,8 +3797,98 @@
       <c r="AW9">
         <v>982147.76242522011</v>
       </c>
+      <c r="AX9">
+        <v>203.1</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ9">
+        <v>232.91</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB9">
+        <v>-29.81</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD9">
+        <v>442.38</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF9">
+        <v>417.29</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH9">
+        <v>25.09</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>169</v>
+      </c>
+      <c r="BJ9">
+        <v>996.85</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>170</v>
+      </c>
+      <c r="BL9">
+        <v>679.37</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BN9">
+        <v>317.48</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>176</v>
+      </c>
+      <c r="BT9">
+        <v>297.47000000000003</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>443</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>444</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>445</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>446</v>
+      </c>
+      <c r="BZ9">
+        <v>111.98</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>447</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2033,8 +4036,98 @@
       <c r="AW10">
         <v>724163.24102096399</v>
       </c>
+      <c r="AX10">
+        <v>247.4</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ10">
+        <v>198.32</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB10">
+        <v>49.08</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD10">
+        <v>535.85</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF10">
+        <v>447.6</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH10">
+        <v>88.25</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>185</v>
+      </c>
+      <c r="BL10">
+        <v>848.45</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>186</v>
+      </c>
+      <c r="BN10">
+        <v>428.92</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>189</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>190</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>191</v>
+      </c>
+      <c r="BT10">
+        <v>585.88</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>448</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ10">
+        <v>142.75</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>452</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2182,8 +4275,98 @@
       <c r="AW11">
         <v>470823.34316523303</v>
       </c>
+      <c r="AX11">
+        <v>242.38</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ11">
+        <v>184.44</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB11">
+        <v>57.94</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD11">
+        <v>497.4</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF11">
+        <v>393.52</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH11">
+        <v>103.89</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL11">
+        <v>734.12</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN11">
+        <v>331.01</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>202</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>203</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT11">
+        <v>370.35</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>453</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>454</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>455</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>456</v>
+      </c>
+      <c r="BZ11">
+        <v>174.87</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>457</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2331,8 +4514,98 @@
       <c r="AW12">
         <v>703067.79364660266</v>
       </c>
+      <c r="AX12">
+        <v>128.07</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ12">
+        <v>87.19</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>209</v>
+      </c>
+      <c r="BB12">
+        <v>40.869999999999997</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD12">
+        <v>315.86</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF12">
+        <v>258.77</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>212</v>
+      </c>
+      <c r="BH12">
+        <v>57.09</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ12">
+        <v>769.4</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL12">
+        <v>614.22</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>215</v>
+      </c>
+      <c r="BN12">
+        <v>155.16999999999999</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>216</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>217</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>218</v>
+      </c>
+      <c r="BR12">
+        <v>819.24</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>219</v>
+      </c>
+      <c r="BT12">
+        <v>294.52999999999997</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>220</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>458</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>459</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>460</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>461</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>462</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2480,8 +4753,98 @@
       <c r="AW13">
         <v>174621.05641986942</v>
       </c>
+      <c r="AX13">
+        <v>131.63</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ13">
+        <v>81.88</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB13">
+        <v>49.76</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD13">
+        <v>352.49</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>224</v>
+      </c>
+      <c r="BF13">
+        <v>171.61</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH13">
+        <v>180.88</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ13">
+        <v>785.19</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>227</v>
+      </c>
+      <c r="BL13">
+        <v>447.6</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN13">
+        <v>337.59</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>229</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>230</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>231</v>
+      </c>
+      <c r="BR13">
+        <v>816.91</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>232</v>
+      </c>
+      <c r="BT13">
+        <v>309.11</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>464</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>465</v>
+      </c>
+      <c r="BX13">
+        <v>968.64</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>466</v>
+      </c>
+      <c r="BZ13">
+        <v>179.61</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>467</v>
+      </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2629,8 +4992,98 @@
       <c r="AW14">
         <v>885381.22317600017</v>
       </c>
+      <c r="AX14">
+        <v>131.13999999999999</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ14">
+        <v>80.38</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB14">
+        <v>50.76</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>236</v>
+      </c>
+      <c r="BD14">
+        <v>339.95</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF14">
+        <v>194.44</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH14">
+        <v>145.51</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>239</v>
+      </c>
+      <c r="BJ14">
+        <v>742.22</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>240</v>
+      </c>
+      <c r="BL14">
+        <v>465.06</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN14">
+        <v>277.16000000000003</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>242</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>243</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>244</v>
+      </c>
+      <c r="BR14">
+        <v>822.77</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>245</v>
+      </c>
+      <c r="BT14">
+        <v>272.33</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>246</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>468</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>469</v>
+      </c>
+      <c r="BX14">
+        <v>945.89</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>470</v>
+      </c>
+      <c r="BZ14">
+        <v>180.68</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>471</v>
+      </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2778,8 +5231,98 @@
       <c r="AW15">
         <v>1620775.4941039993</v>
       </c>
+      <c r="AX15">
+        <v>109.75</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ15">
+        <v>58.42</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>248</v>
+      </c>
+      <c r="BB15">
+        <v>51.33</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD15">
+        <v>368.98</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF15">
+        <v>205.53</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>251</v>
+      </c>
+      <c r="BH15">
+        <v>163.46</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>252</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL15">
+        <v>668.68</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>255</v>
+      </c>
+      <c r="BN15">
+        <v>415.05</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>256</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>257</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>259</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>260</v>
+      </c>
+      <c r="BT15">
+        <v>594.41999999999996</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>261</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>472</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>473</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>474</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>475</v>
+      </c>
+      <c r="BZ15">
+        <v>608.27</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>476</v>
+      </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2927,8 +5470,98 @@
       <c r="AW16">
         <v>317025.9097222354</v>
       </c>
+      <c r="AX16">
+        <v>175.9</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ16">
+        <v>112.2</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB16">
+        <v>63.71</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD16">
+        <v>485.04</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>265</v>
+      </c>
+      <c r="BF16">
+        <v>272.58</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>266</v>
+      </c>
+      <c r="BH16">
+        <v>212.46</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>268</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>269</v>
+      </c>
+      <c r="BL16">
+        <v>814.17</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>270</v>
+      </c>
+      <c r="BN16">
+        <v>751.1</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>271</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>272</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>273</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>274</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>275</v>
+      </c>
+      <c r="BT16">
+        <v>933.4</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>276</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>477</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>478</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>479</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>480</v>
+      </c>
+      <c r="BZ16">
+        <v>730.6</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>481</v>
+      </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3076,8 +5709,98 @@
       <c r="AW17">
         <v>243566.9644091588</v>
       </c>
+      <c r="AX17">
+        <v>33.78</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AZ17">
+        <v>18.68</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>278</v>
+      </c>
+      <c r="BB17">
+        <v>15.1</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD17">
+        <v>213.96</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>280</v>
+      </c>
+      <c r="BF17">
+        <v>60.24</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>281</v>
+      </c>
+      <c r="BH17">
+        <v>153.72</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ17">
+        <v>596.04999999999995</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>283</v>
+      </c>
+      <c r="BL17">
+        <v>216.55</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>284</v>
+      </c>
+      <c r="BN17">
+        <v>379.5</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>285</v>
+      </c>
+      <c r="BP17">
+        <v>820.99</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>286</v>
+      </c>
+      <c r="BR17">
+        <v>491.77</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>287</v>
+      </c>
+      <c r="BT17">
+        <v>329.22</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>288</v>
+      </c>
+      <c r="BV17">
+        <v>923.91</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>482</v>
+      </c>
+      <c r="BX17">
+        <v>738.9</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>483</v>
+      </c>
+      <c r="BZ17">
+        <v>185.02</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>484</v>
+      </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3225,8 +5948,98 @@
       <c r="AW18">
         <v>1522969.6880150069</v>
       </c>
+      <c r="AX18">
+        <v>48.02</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>289</v>
+      </c>
+      <c r="AZ18">
+        <v>21.86</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>290</v>
+      </c>
+      <c r="BB18">
+        <v>26.16</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>291</v>
+      </c>
+      <c r="BD18">
+        <v>118.7</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>292</v>
+      </c>
+      <c r="BF18">
+        <v>63.41</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>293</v>
+      </c>
+      <c r="BH18">
+        <v>55.29</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>294</v>
+      </c>
+      <c r="BJ18">
+        <v>398.46</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>295</v>
+      </c>
+      <c r="BL18">
+        <v>260.58</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>296</v>
+      </c>
+      <c r="BN18">
+        <v>137.88</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>297</v>
+      </c>
+      <c r="BP18">
+        <v>614.67999999999995</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>298</v>
+      </c>
+      <c r="BR18">
+        <v>458.83</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>299</v>
+      </c>
+      <c r="BT18">
+        <v>155.84</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV18">
+        <v>638.17999999999995</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>485</v>
+      </c>
+      <c r="BX18">
+        <v>557.30999999999995</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>486</v>
+      </c>
+      <c r="BZ18">
+        <v>80.88</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3374,8 +6187,98 @@
       <c r="AW19">
         <v>138675.8100579998</v>
       </c>
+      <c r="AX19">
+        <v>187.92</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ19">
+        <v>153.88</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>302</v>
+      </c>
+      <c r="BB19">
+        <v>34.04</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>303</v>
+      </c>
+      <c r="BD19">
+        <v>732.01</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF19">
+        <v>360.56</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>305</v>
+      </c>
+      <c r="BH19">
+        <v>371.46</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>306</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>307</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>309</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>310</v>
+      </c>
+      <c r="BN19">
+        <v>527.75</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>311</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>312</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>313</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>314</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT19">
+        <v>733.54</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>316</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>488</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>489</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>490</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>491</v>
+      </c>
+      <c r="BZ19">
+        <v>677.57</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>492</v>
+      </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3523,8 +6426,98 @@
       <c r="AW20">
         <v>1165386.1788021165</v>
       </c>
+      <c r="AX20">
+        <v>22.4</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ20">
+        <v>11.95</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>318</v>
+      </c>
+      <c r="BB20">
+        <v>10.45</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>319</v>
+      </c>
+      <c r="BD20">
+        <v>150.97</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF20">
+        <v>51.64</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>321</v>
+      </c>
+      <c r="BH20">
+        <v>99.32</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>322</v>
+      </c>
+      <c r="BJ20">
+        <v>454.93</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>323</v>
+      </c>
+      <c r="BL20">
+        <v>395.19</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>324</v>
+      </c>
+      <c r="BN20">
+        <v>59.74</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>325</v>
+      </c>
+      <c r="BP20">
+        <v>725.73</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR20">
+        <v>612.85</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>327</v>
+      </c>
+      <c r="BT20">
+        <v>112.89</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>328</v>
+      </c>
+      <c r="BV20">
+        <v>729.85</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>493</v>
+      </c>
+      <c r="BX20">
+        <v>726.77</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>494</v>
+      </c>
+      <c r="BZ20">
+        <v>3.08</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>495</v>
+      </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -3672,8 +6665,98 @@
       <c r="AW21">
         <v>32929.081146681754</v>
       </c>
+      <c r="AX21">
+        <v>50.91</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ21">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>330</v>
+      </c>
+      <c r="BB21">
+        <v>18.21</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>331</v>
+      </c>
+      <c r="BD21">
+        <v>304.57</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>332</v>
+      </c>
+      <c r="BF21">
+        <v>75.239999999999995</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>333</v>
+      </c>
+      <c r="BH21">
+        <v>229.33</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>334</v>
+      </c>
+      <c r="BJ21">
+        <v>950.99</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>335</v>
+      </c>
+      <c r="BL21">
+        <v>389.67</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>336</v>
+      </c>
+      <c r="BN21">
+        <v>561.32000000000005</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>337</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>338</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>339</v>
+      </c>
+      <c r="BR21">
+        <v>477.44</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>340</v>
+      </c>
+      <c r="BT21">
+        <v>866.84</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>341</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>496</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>497</v>
+      </c>
+      <c r="BX21">
+        <v>791.9</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>498</v>
+      </c>
+      <c r="BZ21">
+        <v>546.28</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>499</v>
+      </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3821,8 +6904,98 @@
       <c r="AW22">
         <v>78479.109767399903</v>
       </c>
+      <c r="AX22">
+        <v>7.11</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>342</v>
+      </c>
+      <c r="AZ22">
+        <v>3.88</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>343</v>
+      </c>
+      <c r="BB22">
+        <v>3.23</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>344</v>
+      </c>
+      <c r="BD22">
+        <v>12.53</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>345</v>
+      </c>
+      <c r="BF22">
+        <v>6.51</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>346</v>
+      </c>
+      <c r="BH22">
+        <v>6.03</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>347</v>
+      </c>
+      <c r="BJ22">
+        <v>31.05</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>348</v>
+      </c>
+      <c r="BL22">
+        <v>26.49</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>349</v>
+      </c>
+      <c r="BN22">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>350</v>
+      </c>
+      <c r="BP22">
+        <v>44.4</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>351</v>
+      </c>
+      <c r="BR22">
+        <v>34.86</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>352</v>
+      </c>
+      <c r="BT22">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>353</v>
+      </c>
+      <c r="BV22">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>500</v>
+      </c>
+      <c r="BX22">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>501</v>
+      </c>
+      <c r="BZ22">
+        <v>5.12</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>502</v>
+      </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -3970,8 +7143,98 @@
       <c r="AW23">
         <v>83485.506902893016</v>
       </c>
+      <c r="AX23">
+        <v>33.58</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>354</v>
+      </c>
+      <c r="AZ23">
+        <v>15.64</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>355</v>
+      </c>
+      <c r="BB23">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>356</v>
+      </c>
+      <c r="BD23">
+        <v>77.59</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>357</v>
+      </c>
+      <c r="BF23">
+        <v>29.19</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>358</v>
+      </c>
+      <c r="BH23">
+        <v>48.4</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>359</v>
+      </c>
+      <c r="BJ23">
+        <v>140.47</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>360</v>
+      </c>
+      <c r="BL23">
+        <v>70.069999999999993</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>361</v>
+      </c>
+      <c r="BN23">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>362</v>
+      </c>
+      <c r="BP23">
+        <v>197.84</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>363</v>
+      </c>
+      <c r="BR23">
+        <v>155.49</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>364</v>
+      </c>
+      <c r="BT23">
+        <v>42.35</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>365</v>
+      </c>
+      <c r="BV23">
+        <v>209.27</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>503</v>
+      </c>
+      <c r="BX23">
+        <v>144.41999999999999</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>504</v>
+      </c>
+      <c r="BZ23">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>505</v>
+      </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -4035,8 +7298,98 @@
       <c r="AS24" t="s">
         <v>47</v>
       </c>
+      <c r="AX24">
+        <v>52.87</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ24">
+        <v>23.35</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>367</v>
+      </c>
+      <c r="BB24">
+        <v>29.52</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>368</v>
+      </c>
+      <c r="BD24">
+        <v>73.52</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>369</v>
+      </c>
+      <c r="BF24">
+        <v>53.86</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>370</v>
+      </c>
+      <c r="BH24">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>371</v>
+      </c>
+      <c r="BJ24">
+        <v>125.9</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>372</v>
+      </c>
+      <c r="BL24">
+        <v>104.37</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>373</v>
+      </c>
+      <c r="BN24">
+        <v>21.53</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>374</v>
+      </c>
+      <c r="BP24">
+        <v>181.39</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>375</v>
+      </c>
+      <c r="BR24">
+        <v>171.16</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BT24">
+        <v>10.23</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>377</v>
+      </c>
+      <c r="BV24">
+        <v>187.56</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>506</v>
+      </c>
+      <c r="BX24">
+        <v>217.32</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>507</v>
+      </c>
+      <c r="BZ24">
+        <v>-29.76</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>508</v>
+      </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -4100,8 +7453,74 @@
       <c r="AS25" t="s">
         <v>52</v>
       </c>
+      <c r="AX25">
+        <v>17.47</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>378</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>17.47</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>378</v>
+      </c>
+      <c r="BD25">
+        <v>40.14</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>379</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>40.14</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>379</v>
+      </c>
+      <c r="BJ25">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>380</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>380</v>
+      </c>
+      <c r="BP25">
+        <v>92.15</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>381</v>
+      </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>92.15</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>381</v>
+      </c>
+      <c r="BV25">
+        <v>94.19</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>509</v>
+      </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -4165,8 +7584,74 @@
       <c r="AS26" t="s">
         <v>57</v>
       </c>
+      <c r="AX26">
+        <v>14.84</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>14.84</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD26">
+        <v>34.1</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>383</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>34.1</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>383</v>
+      </c>
+      <c r="BJ26">
+        <v>64.05</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>384</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>64.05</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>384</v>
+      </c>
+      <c r="BP26">
+        <v>78.290000000000006</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>385</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>78.290000000000006</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>385</v>
+      </c>
+      <c r="BV26">
+        <v>80.02</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>510</v>
+      </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -4230,8 +7715,74 @@
       <c r="AS27" t="s">
         <v>62</v>
       </c>
+      <c r="AX27">
+        <v>14.88</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>14.88</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>386</v>
+      </c>
+      <c r="BD27">
+        <v>34.18</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>387</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>34.18</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>387</v>
+      </c>
+      <c r="BJ27">
+        <v>64.2</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>388</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>64.2</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>388</v>
+      </c>
+      <c r="BP27">
+        <v>78.47</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>389</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>78.47</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>389</v>
+      </c>
+      <c r="BV27">
+        <v>80.2</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>511</v>
+      </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +7846,74 @@
       <c r="AS28" t="s">
         <v>67</v>
       </c>
+      <c r="AX28">
+        <v>34.07</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>390</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>34.07</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>390</v>
+      </c>
+      <c r="BD28">
+        <v>78.28</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>391</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>78.28</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>391</v>
+      </c>
+      <c r="BJ28">
+        <v>147.03</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>392</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>147.03</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>392</v>
+      </c>
+      <c r="BP28">
+        <v>179.7</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>393</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
+        <v>179.7</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>393</v>
+      </c>
+      <c r="BV28">
+        <v>183.67</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>512</v>
+      </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -4360,8 +7977,74 @@
       <c r="AS29" t="s">
         <v>72</v>
       </c>
+      <c r="AX29">
+        <v>41.01</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>394</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>41.01</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>394</v>
+      </c>
+      <c r="BD29">
+        <v>94.22</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>395</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>94.22</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>395</v>
+      </c>
+      <c r="BJ29">
+        <v>176.98</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>396</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>176.98</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>396</v>
+      </c>
+      <c r="BP29">
+        <v>216.32</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>397</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BT29">
+        <v>216.32</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>397</v>
+      </c>
+      <c r="BV29">
+        <v>221.09</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>513</v>
+      </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -4425,8 +8108,74 @@
       <c r="AS30" t="s">
         <v>77</v>
       </c>
+      <c r="AX30">
+        <v>20.58</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>398</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>20.58</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>398</v>
+      </c>
+      <c r="BD30">
+        <v>47.27</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>399</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>47.27</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>399</v>
+      </c>
+      <c r="BJ30">
+        <v>88.79</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>400</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>88.79</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>400</v>
+      </c>
+      <c r="BP30">
+        <v>108.53</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>401</v>
+      </c>
+      <c r="BS30">
+        <v>0</v>
+      </c>
+      <c r="BT30">
+        <v>108.53</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>401</v>
+      </c>
+      <c r="BV30">
+        <v>110.93</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>514</v>
+      </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -4490,8 +8239,74 @@
       <c r="AS31" t="s">
         <v>82</v>
       </c>
+      <c r="AX31">
+        <v>36.47</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>402</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>36.47</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>402</v>
+      </c>
+      <c r="BD31">
+        <v>83.79</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>83.79</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>403</v>
+      </c>
+      <c r="BJ31">
+        <v>157.38999999999999</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>404</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>157.38999999999999</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>404</v>
+      </c>
+      <c r="BP31">
+        <v>192.37</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>405</v>
+      </c>
+      <c r="BS31">
+        <v>0</v>
+      </c>
+      <c r="BT31">
+        <v>192.37</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>405</v>
+      </c>
+      <c r="BV31">
+        <v>196.62</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>515</v>
+      </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -4555,8 +8370,74 @@
       <c r="AS32" t="s">
         <v>87</v>
       </c>
+      <c r="AX32">
+        <v>36.17</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>406</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>36.17</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>406</v>
+      </c>
+      <c r="BD32">
+        <v>83.11</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>407</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>83.11</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>407</v>
+      </c>
+      <c r="BJ32">
+        <v>156.11000000000001</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>408</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>156.11000000000001</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>408</v>
+      </c>
+      <c r="BP32">
+        <v>190.8</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>409</v>
+      </c>
+      <c r="BS32">
+        <v>0</v>
+      </c>
+      <c r="BT32">
+        <v>190.8</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>409</v>
+      </c>
+      <c r="BV32">
+        <v>195.02</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>516</v>
+      </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -4620,8 +8501,74 @@
       <c r="AS33" t="s">
         <v>92</v>
       </c>
+      <c r="AX33">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>410</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>410</v>
+      </c>
+      <c r="BD33">
+        <v>83.08</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>411</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>83.08</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>411</v>
+      </c>
+      <c r="BJ33">
+        <v>156.05000000000001</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>412</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>156.05000000000001</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>412</v>
+      </c>
+      <c r="BP33">
+        <v>190.73</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>413</v>
+      </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
+      <c r="BT33">
+        <v>190.73</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>413</v>
+      </c>
+      <c r="BV33">
+        <v>194.95</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>517</v>
+      </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -4685,8 +8632,74 @@
       <c r="AS34" t="s">
         <v>97</v>
       </c>
+      <c r="AX34">
+        <v>36.22</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>414</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>36.22</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>414</v>
+      </c>
+      <c r="BD34">
+        <v>83.22</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>415</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>83.22</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>415</v>
+      </c>
+      <c r="BJ34">
+        <v>156.31</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>416</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>156.31</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>416</v>
+      </c>
+      <c r="BP34">
+        <v>191.05</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BS34">
+        <v>0</v>
+      </c>
+      <c r="BT34">
+        <v>191.05</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BV34">
+        <v>195.27</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>518</v>
+      </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -4833,9 +8846,315 @@
       </c>
       <c r="AW35">
         <v>295307.31326994579</v>
+      </c>
+      <c r="AX35">
+        <v>35.96</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>418</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>35.96</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>418</v>
+      </c>
+      <c r="BD35">
+        <v>82.62</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>82.62</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>419</v>
+      </c>
+      <c r="BJ35">
+        <v>155.19</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>420</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>155.19</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>420</v>
+      </c>
+      <c r="BP35">
+        <v>189.68</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>421</v>
+      </c>
+      <c r="BS35">
+        <v>0</v>
+      </c>
+      <c r="BT35">
+        <v>189.68</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>421</v>
+      </c>
+      <c r="BV35">
+        <v>193.87</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>525</v>
+      </c>
+      <c r="B36" t="s">
+        <v>520</v>
+      </c>
+      <c r="C36" t="s">
+        <v>526</v>
+      </c>
+      <c r="D36" t="s">
+        <v>527</v>
+      </c>
+      <c r="E36" t="s">
+        <v>528</v>
+      </c>
+      <c r="F36">
+        <v>94.9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>529</v>
+      </c>
+      <c r="H36" t="s">
+        <v>530</v>
+      </c>
+      <c r="I36" t="s">
+        <v>531</v>
+      </c>
+      <c r="J36" t="s">
+        <v>532</v>
+      </c>
+      <c r="K36" t="s">
+        <v>533</v>
+      </c>
+      <c r="L36">
+        <v>99.78</v>
+      </c>
+      <c r="M36" t="s">
+        <v>534</v>
+      </c>
+      <c r="N36" t="s">
+        <v>535</v>
+      </c>
+      <c r="O36" t="s">
+        <v>536</v>
+      </c>
+      <c r="P36" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>538</v>
+      </c>
+      <c r="R36">
+        <v>142.43</v>
+      </c>
+      <c r="S36" t="s">
+        <v>539</v>
+      </c>
+      <c r="T36" t="s">
+        <v>540</v>
+      </c>
+      <c r="U36" t="s">
+        <v>541</v>
+      </c>
+      <c r="V36" t="s">
+        <v>542</v>
+      </c>
+      <c r="W36" t="s">
+        <v>543</v>
+      </c>
+      <c r="X36">
+        <v>82.38</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z36">
+        <v>586.17999999999995</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB36">
+        <v>737.74</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>546</v>
+      </c>
+      <c r="AD36">
+        <v>-151.56</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>547</v>
+      </c>
+      <c r="AF36">
+        <v>445.59</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>548</v>
+      </c>
+      <c r="AH36">
+        <v>345.29</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>549</v>
+      </c>
+      <c r="AJ36">
+        <v>100.3</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>550</v>
+      </c>
+      <c r="AL36">
+        <v>333.35</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>551</v>
+      </c>
+      <c r="AN36">
+        <v>296.07</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>552</v>
+      </c>
+      <c r="AP36">
+        <v>37.28</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>553</v>
+      </c>
+      <c r="AR36">
+        <v>209.62</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>554</v>
+      </c>
+      <c r="AT36">
+        <v>182.41</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>555</v>
+      </c>
+      <c r="AV36">
+        <v>27.21</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>556</v>
+      </c>
+      <c r="AX36">
+        <v>323.83</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>422</v>
+      </c>
+      <c r="AZ36">
+        <v>282.62</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>557</v>
+      </c>
+      <c r="BB36">
+        <v>41.21</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>558</v>
+      </c>
+      <c r="BD36">
+        <v>744.01</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>423</v>
+      </c>
+      <c r="BF36">
+        <v>618.73</v>
+      </c>
+      <c r="BG36" s="1">
+        <v>2265127.81</v>
+      </c>
+      <c r="BH36">
+        <v>125.28</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>559</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>424</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>425</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>560</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>561</v>
+      </c>
+      <c r="BN36">
+        <v>132.87</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>562</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>426</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>427</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>563</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>564</v>
+      </c>
+      <c r="BT36">
+        <v>205.33</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>565</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>520</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>521</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>522</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>523</v>
+      </c>
+      <c r="BZ36">
+        <v>193.95</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>